--- a/www/THRIVEair_codebook.xlsx
+++ b/www/THRIVEair_codebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://drexel0-my.sharepoint.com/personal/lf649_drexel_edu/Documents/Research/South Philly R21/Report Back/Apps/THRIVEair_shiny/www/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="8_{B2EB96DF-CBD3-5C4A-A150-B682CEB80B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71306D5F-5E2A-154A-AC82-39963E627C5A}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="8_{B2EB96DF-CBD3-5C4A-A150-B682CEB80B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A0BDFA0-BBD1-1543-86D2-CA847FBDD13D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{FFB54211-1352-274A-AD01-EB240E61CC82}"/>
+    <workbookView xWindow="-35620" yWindow="-3100" windowWidth="34100" windowHeight="21020" xr2:uid="{FFB54211-1352-274A-AD01-EB240E61CC82}"/>
   </bookViews>
   <sheets>
     <sheet name="Codebook" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="101">
   <si>
     <t>Benzene</t>
   </si>
@@ -56,9 +56,6 @@
     <t>etbenz</t>
   </si>
   <si>
-    <t>Xylenes</t>
-  </si>
-  <si>
     <t>xylenes</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>btex</t>
   </si>
   <si>
-    <t>m,p-Xylene 2</t>
-  </si>
-  <si>
     <t>mpxylene</t>
   </si>
   <si>
@@ -86,21 +80,12 @@
     <t>benz12chloro</t>
   </si>
   <si>
-    <t>1-ethyl-2-methyl-benzene</t>
-  </si>
-  <si>
     <t>benz1ethyl2methyl</t>
   </si>
   <si>
-    <t>1-ethyl-3-methyl-benzene</t>
-  </si>
-  <si>
     <t>benz1ethyl3methyl</t>
   </si>
   <si>
-    <t>1-ethyl-4-methyl-benzene</t>
-  </si>
-  <si>
     <t>benz1ethyl4methyl</t>
   </si>
   <si>
@@ -128,15 +113,9 @@
     <t>heptane</t>
   </si>
   <si>
-    <t>3-methyl-heptane</t>
-  </si>
-  <si>
     <t>heptane3methyl</t>
   </si>
   <si>
-    <t>2-methyl-hexane</t>
-  </si>
-  <si>
     <t>hexane2methyl</t>
   </si>
   <si>
@@ -170,9 +149,6 @@
     <t>tce</t>
   </si>
   <si>
-    <t>Trichloromonofluoromethane</t>
-  </si>
-  <si>
     <t>trichlorofluoromethane</t>
   </si>
   <si>
@@ -242,15 +218,148 @@
     <t>Methodology Notes</t>
   </si>
   <si>
-    <t>Sample flags are assigned to RAW values (i.e., not blank-corrected). Samples are blank-corrected based on field blanks within the same sample month. 
-After blank-correction, the value of any NDs is replaced with one half the limit of detection (LOD/2).</t>
+    <t>(m+p)-Xylenes</t>
+  </si>
+  <si>
+    <t>Total Xylenes</t>
+  </si>
+  <si>
+    <t>1,2,3-Trimethylbenzene</t>
+  </si>
+  <si>
+    <t>benzene_1_2_3_trimethyl</t>
+  </si>
+  <si>
+    <t>1,4-Diethylbenzene</t>
+  </si>
+  <si>
+    <t>benzene_1_4_diethyl</t>
+  </si>
+  <si>
+    <t>1-Ethyl-2-Methylbenzene</t>
+  </si>
+  <si>
+    <t>1-Ethyl-3-Methylbenzene</t>
+  </si>
+  <si>
+    <t>1-Ethyl-4-Methylbenzene</t>
+  </si>
+  <si>
+    <t>2,3,4-Trimethylpentane</t>
+  </si>
+  <si>
+    <t>pentane_2_3_4_trimethyl</t>
+  </si>
+  <si>
+    <t>2,4-Dimethylpentane</t>
+  </si>
+  <si>
+    <t>pentane_2_4_dimethyl</t>
+  </si>
+  <si>
+    <t>2-Methylhexane</t>
+  </si>
+  <si>
+    <t>3-Methylheptane</t>
+  </si>
+  <si>
+    <t>3-Methylhexane</t>
+  </si>
+  <si>
+    <t>hexane_3_methyl</t>
+  </si>
+  <si>
+    <t>3-Methylpentane</t>
+  </si>
+  <si>
+    <t>pentane_3_methyl</t>
+  </si>
+  <si>
+    <t>Isohexane</t>
+  </si>
+  <si>
+    <t>pentane_2_methyl</t>
+  </si>
+  <si>
+    <t>Isopentane</t>
+  </si>
+  <si>
+    <t>butane_2_methyl</t>
+  </si>
+  <si>
+    <t>Methylcyclohexane</t>
+  </si>
+  <si>
+    <t>cyclohexane_methyl</t>
+  </si>
+  <si>
+    <t>1-Hexene</t>
+  </si>
+  <si>
+    <t>x1_hexene</t>
+  </si>
+  <si>
+    <t>cis-2-Pentene</t>
+  </si>
+  <si>
+    <t>x2_pentene_z_cis</t>
+  </si>
+  <si>
+    <t>Isoprene</t>
+  </si>
+  <si>
+    <t>x1_3_butadiene_2_methyl</t>
+  </si>
+  <si>
+    <t>2-Hexanone</t>
+  </si>
+  <si>
+    <t>x2_hexanone</t>
+  </si>
+  <si>
+    <t>Methyl isobutyl ketone</t>
+  </si>
+  <si>
+    <t>methyl_isobutyl_ketone</t>
+  </si>
+  <si>
+    <t>Carbon tetrachloride</t>
+  </si>
+  <si>
+    <t>carbon_tetrachloride</t>
+  </si>
+  <si>
+    <t>Chloroform</t>
+  </si>
+  <si>
+    <t>trichloromethane</t>
+  </si>
+  <si>
+    <t>Trichlorofluoromethane</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sample flags are assigned to blank-corrected values. Samples are blank-corrected based on field blanks within the same sample month. 
+The value of any NDs is replaced with one half the limit of detection (LOD/2). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Please note that values flagged LOD are detected, but at low concentrations. These values can be considered less accurate than values flagged REG.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -284,6 +393,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -390,13 +507,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -414,14 +528,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -430,6 +541,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -444,24 +561,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -778,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B1ACE3-8F78-B04C-BB08-58D892F590BB}">
-  <dimension ref="B1:L28"/>
+  <dimension ref="B1:L43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -795,443 +900,641 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="26" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="10"/>
+      <c r="H2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="2:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="H3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="23">
+        <v>106.16</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="H4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="23">
+        <v>78.11</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="H5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="13"/>
-      <c r="H2" s="18" t="s">
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="23">
+        <v>106.17</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="H6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="2:12" ht="40" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="17" t="s">
+    </row>
+    <row r="7" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="23">
+        <v>106.16</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="H7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="23">
+        <v>92.14</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="H9" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="23">
+        <v>106.16</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="H3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="26">
-        <v>78.11</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="D11" s="23">
+        <v>120.194</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="1"/>
+      <c r="H11" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="H4" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="C12" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="23">
+        <v>134.221</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="1"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="23">
+        <v>120.19</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="1"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="23">
+        <v>120.19</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="1"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="23">
+        <v>120.19</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="1"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="23">
+        <v>120.19</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="1"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="23">
+        <v>120.19</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="1"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="23">
+        <v>100.21</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="26">
-        <v>92.14</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="H5" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="26">
-        <v>106.17</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="H6" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="26">
-        <v>106.16</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="H7" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="26">
-        <v>106.16</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="H9" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="26">
-        <v>106.16</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
-      <c r="L10" s="31"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="26">
-        <v>147.01</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="26">
-        <v>120.19</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="1"/>
-      <c r="H12" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="26">
-        <v>120.19</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="1"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="26">
-        <v>120.19</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="1"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="26">
-        <v>120.19</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="1"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="26">
-        <v>149.29</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="1"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="26">
-        <v>170.34</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="1"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="26" t="s">
+      <c r="F18" s="1"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="26">
-        <v>100.21</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="26">
-        <v>114.23</v>
-      </c>
-      <c r="E19" s="15"/>
+      <c r="D19" s="23">
+        <v>86.18</v>
+      </c>
+      <c r="E19" s="24"/>
       <c r="F19" s="1"/>
       <c r="H19" s="21"/>
       <c r="I19" s="22"/>
     </row>
-    <row r="20" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="D20" s="23">
+        <v>128.25</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="26">
+      <c r="C21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="23">
+        <v>114.23</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="23">
+        <v>149.29</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="23">
+        <v>170.34</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="23">
+        <v>156.31</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="23">
+        <v>114.232</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="23">
+        <v>100.205</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="23">
         <v>100.2</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="1"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="24"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="26" t="s">
+      <c r="E27" s="24"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="23">
+        <v>114.23</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="23">
+        <v>100.205</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="23">
+        <v>86.177999999999997</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="23">
+        <v>86.177999999999997</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="23">
+        <v>72.150999999999996</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="23">
+        <v>98.188999999999993</v>
+      </c>
+      <c r="E33" s="24"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="23">
+        <v>84.162000000000006</v>
+      </c>
+      <c r="E34" s="24"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="23">
+        <v>70.132900000000006</v>
+      </c>
+      <c r="E35" s="24"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="23">
+        <v>68.12</v>
+      </c>
+      <c r="E36" s="24"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="23">
+        <v>100.161</v>
+      </c>
+      <c r="E37" s="24"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="23">
+        <v>100.16</v>
+      </c>
+      <c r="E38" s="24"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="23">
+        <v>147.01</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="23">
+        <v>153.81</v>
+      </c>
+      <c r="E40" s="24"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="23">
+        <v>119.37</v>
+      </c>
+      <c r="E41" s="24"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="26">
-        <v>120.19</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
+      <c r="C42" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="D42" s="23">
+        <v>165.83</v>
+      </c>
+      <c r="E42" s="24"/>
+    </row>
+    <row r="43" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="26">
-        <v>86.18</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="26">
-        <v>128.25</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="26">
-        <v>114.23</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="26">
-        <v>165.83</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="26">
+      <c r="D43" s="25">
         <v>137.37</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="5">
-        <v>156.31</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F28" s="1"/>
+      <c r="E43" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H9:I10"/>
-    <mergeCell ref="H12:I20"/>
+    <mergeCell ref="H11:I19"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" display="Summary" xr:uid="{CB449376-F991-BE48-92EB-E0F33F10F7FB}"/>
-    <hyperlink ref="E5" r:id="rId2" display="Summary" xr:uid="{A0BA5686-2B16-8044-943B-E4F2720092A6}"/>
-    <hyperlink ref="E6" r:id="rId3" display="Summary" xr:uid="{05FB6C38-070D-394B-988F-0D688FE841CE}"/>
-    <hyperlink ref="E7" r:id="rId4" display="Summary" xr:uid="{BD975525-3A93-9B46-8F38-5909E87F7D27}"/>
-    <hyperlink ref="E8" r:id="rId5" xr:uid="{466B310E-87E9-B543-812C-D2E39755DAC8}"/>
-    <hyperlink ref="E9" r:id="rId6" display="Summary" xr:uid="{E2FD1A09-7E55-A648-8F34-A45A403218E3}"/>
-    <hyperlink ref="E10" r:id="rId7" display="Summary" xr:uid="{36A74CA7-B85C-9747-9E2B-668A924B54B1}"/>
-    <hyperlink ref="E11" r:id="rId8" xr:uid="{710CE21C-A9B2-5548-967D-9FC42764F86A}"/>
-    <hyperlink ref="E18" r:id="rId9" xr:uid="{FF65BB8F-ED5D-A246-BE07-36DF73251630}"/>
-    <hyperlink ref="E24" r:id="rId10" xr:uid="{DBDAF44E-594E-734D-BC7B-3258DD0F50F8}"/>
+    <hyperlink ref="E5" r:id="rId1" display="Summary" xr:uid="{248D25F0-41B9-624C-8DE0-7300843DAC87}"/>
+    <hyperlink ref="E8" r:id="rId2" display="Summary" xr:uid="{47B8482C-8ABB-5E46-855E-AC50FE83148B}"/>
+    <hyperlink ref="E6" r:id="rId3" display="Summary" xr:uid="{7A2BE09A-ECCA-1445-ABB2-6058AC9DBC5B}"/>
+    <hyperlink ref="E10" r:id="rId4" display="Summary" xr:uid="{9572F034-7335-214D-8207-8D064FCD07A3}"/>
+    <hyperlink ref="E9" r:id="rId5" xr:uid="{4209895A-FB58-7248-9149-FA75DE8B7BFE}"/>
+    <hyperlink ref="E4" r:id="rId6" display="Summary" xr:uid="{D5273008-ABC9-7844-9D01-A6C27564EDCA}"/>
+    <hyperlink ref="E7" r:id="rId7" display="Summary" xr:uid="{BCB329FD-32D6-144F-9B3D-A518EC78F871}"/>
+    <hyperlink ref="E39" r:id="rId8" xr:uid="{4E25CAEE-611B-A449-B341-6E23A3429E2C}"/>
+    <hyperlink ref="E18" r:id="rId9" xr:uid="{A686D1E6-C328-504B-9985-C322E2A77A41}"/>
+    <hyperlink ref="E21" r:id="rId10" xr:uid="{9A74EAE5-85E7-4847-9CDA-0559F1E8D448}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
